--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CF0E2A-ED80-4BAD-AD6A-AD38F8D78C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899741B-AFC1-4581-950F-68795443E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="vivrin_cube_reward_shop_table" sheetId="1" r:id="rId2"/>
+    <sheet name="vivrincube_reward_shop_table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Constraint_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -72,10 +68,6 @@
     <t>연관 테이블</t>
   </si>
   <si>
-    <t>vivrin_cube_reward_shop_table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비브린 큐브 보상 교환 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,6 +128,62 @@
   </si>
   <si>
     <t>업적 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 아이템 고유 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 시 지급하는 아이템의 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>241200 ~ 241299</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 시 필요한 아이템 고유 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 시 필요한 아이템의 개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 교환 리스트의 고유 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint_type_sub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 횟수 제한 타입 서브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 횟수 제한 타입 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[constraint_type=0] &amp;&amp; value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 고유 아이디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_reward_shop_table</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,21 +282,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1" tint="0.499984740745262"/>
       </left>
       <right style="thin">
@@ -305,54 +338,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,223 +739,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="23.69921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="36.296875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.296875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="15"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="6">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="6">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7"/>
+      <c r="G17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -921,32 +1024,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE386FE-55B6-41F9-92F6-3484105CF4A5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="21"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899741B-AFC1-4581-950F-68795443E485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AF6AC-6CB2-426F-A0D9-D3DF034A673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>item_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -143,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>241200 ~ 241299</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래 시 필요한 아이템 고유 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -163,14 +155,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>거래 횟수 제한 타입 서브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 횟수 제한 타입 메인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,6 +168,271 @@
   </si>
   <si>
     <t>vivrincube_reward_shop_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26000 ~ 26999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_reward_shop_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#item_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리용 칼럼 (칼럼명 앞에 키값(#)을 붙여 해당 키값이 있는 열의 데이터는 읽어오지 않습니다.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 아이템 이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기억의 큐브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회상의 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>후회의 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불굴의 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용기의 조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 전투 경험치 물약</t>
+  </si>
+  <si>
+    <t>중형 전투 경험치 물약</t>
+  </si>
+  <si>
+    <t>대형 전투 경험치 물약</t>
+  </si>
+  <si>
+    <t>전설 ~ 일반 카드팩</t>
+  </si>
+  <si>
+    <t>전설 ~ 고급 카드팩</t>
+  </si>
+  <si>
+    <t>전설 ~ 희귀 카드팩</t>
+  </si>
+  <si>
+    <t>전설 ~ 영웅 카드팩</t>
+  </si>
+  <si>
+    <t>영겁의 정수</t>
+  </si>
+  <si>
+    <t>태초의 조각</t>
+  </si>
+  <si>
+    <t>메넬리크의 서</t>
+  </si>
+  <si>
+    <t>전설 카드팩</t>
+  </si>
+  <si>
+    <t>정련된 혼돈의 돌 (무기)</t>
+  </si>
+  <si>
+    <t>정련된 혼돈의 돌 (방어구)</t>
+  </si>
+  <si>
+    <t>펫 기능 이용권 (15일)</t>
+  </si>
+  <si>
+    <t>펫 지원 효과 이용권 (15일)</t>
+  </si>
+  <si>
+    <t>루페온의 빛이 깃든 화폐 상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설 전투 각인서 선택 주머니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>염원의 아뮬렛 상자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월 유적 복원권 : 방어구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야금술 : 몽환 [13-15]</t>
+  </si>
+  <si>
+    <t>야금술 : 몽환 [16-19]</t>
+  </si>
+  <si>
+    <t>야금술 : 쇠락 [13-15]</t>
+  </si>
+  <si>
+    <t>야금술 : 쇠락 [16-19]</t>
+  </si>
+  <si>
+    <t>야금술 : 업화 [11-14]</t>
+  </si>
+  <si>
+    <t>재봉술 : 몽환 [13-15]</t>
+  </si>
+  <si>
+    <t>재봉술 : 몽환 [16-19]</t>
+  </si>
+  <si>
+    <t>재봉술 : 쇠락 [13-15]</t>
+  </si>
+  <si>
+    <t>재봉술 : 쇠락 [16-19]</t>
+  </si>
+  <si>
+    <t>재봉술 :업화 [11-14]</t>
+  </si>
+  <si>
+    <t>3 티어 아이템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 티어 아이템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 아이템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilst_type01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_type02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보기 조건에 따라 분류되는 아이템 리스트 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭에 따라 분류되는 아이템 리스트 타입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물물 교환 탭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 교환 탭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_type01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예의 파편 주머니 (소)</t>
+  </si>
+  <si>
+    <t>명예의 파편 주머니 (중)</t>
+  </si>
+  <si>
+    <t>명예의 파편 주머니 (대)</t>
+  </si>
+  <si>
+    <t>태양의 은총</t>
+  </si>
+  <si>
+    <t>태양의 축복</t>
+  </si>
+  <si>
+    <t>태양의 가호</t>
+  </si>
+  <si>
+    <t>위대한 명예의 돌파석</t>
+  </si>
+  <si>
+    <t>경이로운 명예의 돌파석</t>
+  </si>
+  <si>
+    <t>찬란한 명예의 돌파석</t>
+  </si>
+  <si>
+    <t>파괴석 결정</t>
+  </si>
+  <si>
+    <t>파괴강석</t>
+  </si>
+  <si>
+    <t>수호강석</t>
+  </si>
+  <si>
+    <t>수호석 결정</t>
+  </si>
+  <si>
+    <t>정제된 파괴강석</t>
+  </si>
+  <si>
+    <t>정제된 수호강석</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (소)</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (중)</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (대)</t>
+  </si>
+  <si>
+    <t>용암의 숨결</t>
+  </si>
+  <si>
+    <t>빙하의 숨결</t>
+  </si>
+  <si>
+    <t>운명의 돌파석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명의 파괴석</t>
+  </si>
+  <si>
+    <t>운명의 수호석</t>
+  </si>
+  <si>
+    <t>업적 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>constraint_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 제한 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 제한 횟수 타입 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 제한 횟수 타입 서브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +440,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +500,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -332,13 +606,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,28 +680,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,10 +716,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,283 +1092,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="18"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="17"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="18"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="6">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="6">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="18"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="G25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="6">
-        <v>3</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="6">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>27</v>
+      <c r="H25" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="C10:C14"/>
+  <mergeCells count="19">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="C16:C20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1024,17 +1531,1658 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE386FE-55B6-41F9-92F6-3484105CF4A5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="25.59765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.09765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.09765625" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>26000</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12200</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>26001</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>11212</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>26002</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>11213</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>26003</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>11214</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>26004</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>11215</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>26005</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11020</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>26006</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>11021</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>26007</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>11022</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>26008</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>11023</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>26009</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11024</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>26010</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>11025</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>26011</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11026</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>26012</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>11027</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>26013</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>11028</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>26014</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>11029</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>26015</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>11030</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="6">
+        <v>26016</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>11031</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" s="6">
+        <v>26017</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>11032</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A20" s="6">
+        <v>26018</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11033</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" s="6">
+        <v>26019</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>11034</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="6">
+        <v>26020</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>11035</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23" s="6">
+        <v>26021</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>11036</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" s="6">
+        <v>26022</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>11037</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" s="6">
+        <v>26023</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>11038</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" s="6">
+        <v>26024</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>11039</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="6">
+        <v>26025</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>11040</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="6">
+        <v>26026</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>11041</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="6">
+        <v>26027</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>11042</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="6">
+        <v>26028</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>11043</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="6">
+        <v>26029</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>11044</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="6">
+        <v>26030</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>11045</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" s="6">
+        <v>26031</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>11046</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="6">
+        <v>26032</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>11047</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K34" s="4"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A35" s="6">
+        <v>26033</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>11048</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" s="6">
+        <v>26034</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="6">
+        <v>11049</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="6">
+        <v>26035</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="6">
+        <v>11050</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K37" s="4"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A38" s="6">
+        <v>26036</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="6">
+        <v>11051</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A39" s="6">
+        <v>26037</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6">
+        <v>11052</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A40" s="6">
+        <v>26038</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>11053</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A41" s="6">
+        <v>26039</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>11054</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="6">
+        <v>26040</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>11055</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="6">
+        <v>26041</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>11056</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="6">
+        <v>26042</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="6">
+        <v>11057</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="6">
+        <v>26043</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>11058</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A46" s="6">
+        <v>26044</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>11059</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A47" s="6">
+        <v>26045</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>11060</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A48" s="6">
+        <v>26046</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+      <c r="E48" s="6">
+        <v>11061</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A49" s="6">
+        <v>26047</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>11062</v>
+      </c>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" s="6">
+        <v>26048</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="6">
+        <v>11063</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A51" s="6">
+        <v>26049</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>11064</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A52" s="6">
+        <v>26050</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>11065</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A53" s="6">
+        <v>26051</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>11066</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A54" s="6">
+        <v>26052</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>11067</v>
+      </c>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" s="6">
+        <v>26053</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>11068</v>
+      </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" s="6">
+        <v>26054</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>11069</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K56" s="4"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" s="6">
+        <v>26055</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>11070</v>
+      </c>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" s="6">
+        <v>26056</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>11071</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>11211</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_reward_shop_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990AF6AC-6CB2-426F-A0D9-D3DF034A673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7009763-8CBF-4FEB-BCC0-1692777DEE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>item_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,22 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원정대 단위 거래 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 단위 거래 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일 거래 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주간 거래 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>item_ea</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>업적 제한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래 아이템 고유 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -159,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[constraint_type=0] &amp;&amp; value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>업적 고유 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,58 +357,91 @@
     <t>수호석 결정</t>
   </si>
   <si>
+    <t>정제된 수호강석</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (소)</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (중)</t>
+  </si>
+  <si>
+    <t>운명의 파편 주머니 (대)</t>
+  </si>
+  <si>
+    <t>용암의 숨결</t>
+  </si>
+  <si>
+    <t>빙하의 숨결</t>
+  </si>
+  <si>
+    <t>운명의 돌파석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운명의 파괴석</t>
+  </si>
+  <si>
+    <t>운명의 수호석</t>
+  </si>
+  <si>
+    <t>constraint_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 제한 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래 제한 횟수 타입 메인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 원정대 단위 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 캐릭터 단위 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 원정대 단위 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일일 캐릭터 단위 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원정대 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 거래 제한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>정제된 파괴강석</t>
-  </si>
-  <si>
-    <t>정제된 수호강석</t>
-  </si>
-  <si>
-    <t>운명의 파편 주머니 (소)</t>
-  </si>
-  <si>
-    <t>운명의 파편 주머니 (중)</t>
-  </si>
-  <si>
-    <t>운명의 파편 주머니 (대)</t>
-  </si>
-  <si>
-    <t>용암의 숨결</t>
-  </si>
-  <si>
-    <t>빙하의 숨결</t>
-  </si>
-  <si>
-    <t>운명의 돌파석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>운명의 파괴석</t>
-  </si>
-  <si>
-    <t>운명의 수호석</t>
-  </si>
-  <si>
-    <t>업적 없음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>constraint_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 제한 횟수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 제한 횟수 타입 메인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래 제한 횟수 타입 서브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000 ~ 49999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 제한 없음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적 제한 타입</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +658,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,45 +686,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -728,6 +698,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,10 +719,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,11 +737,26 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,41 +1092,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H25"/>
+  <dimension ref="B2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24.8984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="28.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1149,12 +1147,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1163,121 +1161,121 @@
         <v>13</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="13" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>81</v>
+      <c r="G9" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="18"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>82</v>
+      <c r="G10" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="13" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="17"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="21"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="18"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="G12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="G13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1286,21 +1284,21 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>11</v>
@@ -1309,205 +1307,235 @@
         <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="17"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="17"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+        <v>107</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="21"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="6">
         <v>2</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="17"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+        <v>108</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="21"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="6">
         <v>3</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="21"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="6">
         <v>4</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="21"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="8">
+        <v>6</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="22"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="20">
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E16:E22"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="B16:B22"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -1518,11 +1546,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H17:H20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="C16:C20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1534,65 +1557,65 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.8984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.09765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>26000</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>40</v>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -1610,22 +1633,24 @@
         <v>1</v>
       </c>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="6">
         <v>11211</v>
       </c>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K2" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>26001</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>41</v>
+      <c r="B3" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -1643,22 +1668,24 @@
         <v>1</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="6">
         <v>11211</v>
       </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K3" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>26002</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>42</v>
+      <c r="B4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -1676,22 +1703,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="6">
         <v>11211</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>26003</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>43</v>
+      <c r="B5" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -1709,22 +1738,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="6">
         <v>11211</v>
       </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K5" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>26004</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>44</v>
+      <c r="B6" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -1742,22 +1773,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="6">
         <v>11211</v>
       </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>26005</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>45</v>
+      <c r="B7" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="6">
         <v>0</v>
@@ -1771,22 +1804,28 @@
       <c r="F7" s="6">
         <v>1</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7" s="6">
         <v>11211</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K7" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>26006</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>46</v>
+      <c r="B8" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1800,22 +1839,28 @@
       <c r="F8" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
       <c r="I8" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" s="6">
         <v>11211</v>
       </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K8" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>26007</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>47</v>
+      <c r="B9" s="14" t="s">
+        <v>41</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -1829,22 +1874,28 @@
       <c r="F9" s="6">
         <v>1</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
       <c r="I9" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6">
         <v>11211</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K9" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>26008</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>48</v>
+      <c r="B10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1858,22 +1909,28 @@
       <c r="F10" s="6">
         <v>1</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
       <c r="I10" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10" s="6">
         <v>11211</v>
       </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K10" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>26009</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>49</v>
+      <c r="B11" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -1887,22 +1944,28 @@
       <c r="F11" s="6">
         <v>1</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11" s="6">
         <v>11211</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K11" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>26010</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>50</v>
+      <c r="B12" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1916,22 +1979,28 @@
       <c r="F12" s="6">
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" s="6">
         <v>11211</v>
       </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K12" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>26011</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>51</v>
+      <c r="B13" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -1945,22 +2014,28 @@
       <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
       <c r="I13" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" s="6">
         <v>11211</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K13" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>26012</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>55</v>
+      <c r="B14" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -1971,27 +2046,31 @@
       <c r="E14" s="6">
         <v>11027</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
       <c r="G14" s="6">
         <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
         <v>11211</v>
       </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K14" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>26013</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>52</v>
+      <c r="B15" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -2002,23 +2081,31 @@
       <c r="E15" s="6">
         <v>11028</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15" s="6">
         <v>11211</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K15" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>26014</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>53</v>
+      <c r="B16" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -2029,23 +2116,31 @@
       <c r="E16" s="6">
         <v>11029</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="6">
         <v>11211</v>
       </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K16" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>26015</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>54</v>
+      <c r="B17" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -2056,23 +2151,31 @@
       <c r="E17" s="6">
         <v>11030</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="6">
         <v>11211</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K17" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>26016</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>56</v>
+      <c r="B18" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -2083,23 +2186,31 @@
       <c r="E18" s="6">
         <v>11031</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
       <c r="I18" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="6">
         <v>11211</v>
       </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K18" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>26017</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>57</v>
+      <c r="B19" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2110,23 +2221,31 @@
       <c r="E19" s="6">
         <v>11032</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
       <c r="I19" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J19" s="6">
         <v>11211</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K19" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>26018</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>58</v>
+      <c r="B20" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -2137,27 +2256,31 @@
       <c r="E20" s="6">
         <v>11033</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
       <c r="G20" s="6">
         <v>1</v>
       </c>
       <c r="H20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="6">
         <v>11211</v>
       </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K20" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>26019</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>59</v>
+      <c r="B21" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -2168,27 +2291,31 @@
       <c r="E21" s="6">
         <v>11034</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
       <c r="G21" s="6">
         <v>1</v>
       </c>
       <c r="H21" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="6">
         <v>11211</v>
       </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K21" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>26020</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>60</v>
+      <c r="B22" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2199,23 +2326,31 @@
       <c r="E22" s="6">
         <v>11035</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
+        <v>5</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22" s="6">
         <v>11211</v>
       </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K22" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>26021</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>61</v>
+      <c r="B23" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -2226,23 +2361,31 @@
       <c r="E23" s="6">
         <v>11036</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="I23" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="6">
         <v>11211</v>
       </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K23" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>26022</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>62</v>
+      <c r="B24" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -2253,23 +2396,31 @@
       <c r="E24" s="6">
         <v>11037</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
       <c r="I24" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="6">
         <v>11211</v>
       </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K24" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>26023</v>
       </c>
-      <c r="B25" s="30" t="s">
-        <v>63</v>
+      <c r="B25" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -2280,23 +2431,31 @@
       <c r="E25" s="6">
         <v>11038</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
       <c r="I25" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J25" s="6">
         <v>11211</v>
       </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K25" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>26024</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>64</v>
+      <c r="B26" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -2307,23 +2466,31 @@
       <c r="E26" s="6">
         <v>11039</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
       <c r="I26" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="6">
         <v>11211</v>
       </c>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K26" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26025</v>
       </c>
-      <c r="B27" s="30" t="s">
-        <v>65</v>
+      <c r="B27" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2334,23 +2501,31 @@
       <c r="E27" s="6">
         <v>11040</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="6">
         <v>11211</v>
       </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K27" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>26026</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>66</v>
+      <c r="B28" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -2361,23 +2536,31 @@
       <c r="E28" s="6">
         <v>11041</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
       <c r="I28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="6">
         <v>11211</v>
       </c>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K28" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>26027</v>
       </c>
-      <c r="B29" s="30" t="s">
-        <v>67</v>
+      <c r="B29" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -2388,23 +2571,31 @@
       <c r="E29" s="6">
         <v>11042</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>3</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
       <c r="I29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="6">
         <v>11211</v>
       </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K29" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>26028</v>
       </c>
-      <c r="B30" s="30" t="s">
-        <v>68</v>
+      <c r="B30" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2415,23 +2606,31 @@
       <c r="E30" s="6">
         <v>11043</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="6">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
       <c r="I30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="6">
         <v>11211</v>
       </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K30" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>26029</v>
       </c>
-      <c r="B31" s="30" t="s">
-        <v>69</v>
+      <c r="B31" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2442,23 +2641,31 @@
       <c r="E31" s="6">
         <v>11044</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6">
+        <v>3</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
       <c r="I31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="6">
         <v>11211</v>
       </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K31" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>26030</v>
       </c>
-      <c r="B32" s="30" t="s">
-        <v>70</v>
+      <c r="B32" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -2469,23 +2676,31 @@
       <c r="E32" s="6">
         <v>11045</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
       <c r="I32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="6">
         <v>11211</v>
       </c>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K32" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>26031</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>71</v>
+      <c r="B33" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -2496,23 +2711,31 @@
       <c r="E33" s="6">
         <v>11046</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="F33" s="6">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
+        <v>3</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
       <c r="I33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="6">
         <v>11211</v>
       </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K33" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>26032</v>
       </c>
-      <c r="B34" s="30" t="s">
-        <v>72</v>
+      <c r="B34" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -2523,23 +2746,31 @@
       <c r="E34" s="6">
         <v>11047</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+      <c r="F34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="6">
+        <v>3</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
       <c r="I34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="6">
         <v>11211</v>
       </c>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K34" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>26033</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>73</v>
+      <c r="B35" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -2550,23 +2781,31 @@
       <c r="E35" s="6">
         <v>11048</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
       <c r="I35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="6">
         <v>11211</v>
       </c>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K35" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>26034</v>
       </c>
-      <c r="B36" s="30" t="s">
-        <v>84</v>
+      <c r="B36" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -2577,23 +2816,31 @@
       <c r="E36" s="6">
         <v>11049</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+      <c r="F36" s="6">
+        <v>1</v>
+      </c>
+      <c r="G36" s="6">
+        <v>3</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
       <c r="I36" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J36" s="6">
         <v>11211</v>
       </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K36" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>26035</v>
       </c>
-      <c r="B37" s="30" t="s">
-        <v>85</v>
+      <c r="B37" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -2604,23 +2851,31 @@
       <c r="E37" s="6">
         <v>11050</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="F37" s="6">
+        <v>1</v>
+      </c>
+      <c r="G37" s="6">
+        <v>3</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0</v>
+      </c>
       <c r="I37" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J37" s="6">
         <v>11211</v>
       </c>
-      <c r="K37" s="4"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K37" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>26036</v>
       </c>
-      <c r="B38" s="30" t="s">
-        <v>86</v>
+      <c r="B38" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -2631,23 +2886,31 @@
       <c r="E38" s="6">
         <v>11051</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="F38" s="6">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>3</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
       <c r="I38" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J38" s="6">
         <v>11211</v>
       </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K38" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>26037</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>87</v>
+      <c r="B39" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -2658,23 +2921,31 @@
       <c r="E39" s="6">
         <v>11052</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6">
+        <v>3</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
       <c r="I39" s="6">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J39" s="6">
         <v>11211</v>
       </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K39" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>26038</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>88</v>
+      <c r="B40" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -2685,23 +2956,31 @@
       <c r="E40" s="6">
         <v>11053</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="6">
+        <v>1</v>
+      </c>
+      <c r="G40" s="6">
+        <v>3</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0</v>
+      </c>
       <c r="I40" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J40" s="6">
         <v>11211</v>
       </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K40" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>26039</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>89</v>
+      <c r="B41" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -2712,23 +2991,31 @@
       <c r="E41" s="6">
         <v>11054</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>3</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
       <c r="I41" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J41" s="6">
         <v>11211</v>
       </c>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K41" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>26040</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>90</v>
+      <c r="B42" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
@@ -2739,23 +3026,31 @@
       <c r="E42" s="6">
         <v>11055</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="F42" s="6">
+        <v>1</v>
+      </c>
+      <c r="G42" s="6">
+        <v>3</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0</v>
+      </c>
       <c r="I42" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J42" s="6">
         <v>11211</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K42" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>26041</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>91</v>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C43" s="6">
         <v>1</v>
@@ -2766,23 +3061,31 @@
       <c r="E43" s="6">
         <v>11056</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>3</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
       <c r="I43" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J43" s="6">
         <v>11211</v>
       </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K43" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>26042</v>
       </c>
-      <c r="B44" s="35" t="s">
-        <v>92</v>
+      <c r="B44" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -2793,23 +3096,31 @@
       <c r="E44" s="6">
         <v>11057</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0</v>
+      </c>
       <c r="I44" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J44" s="6">
         <v>11211</v>
       </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K44" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>26043</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>93</v>
+      <c r="B45" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -2820,23 +3131,31 @@
       <c r="E45" s="6">
         <v>11058</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="F45" s="6">
+        <v>10</v>
+      </c>
+      <c r="G45" s="6">
+        <v>3</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
       <c r="I45" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J45" s="6">
         <v>11211</v>
       </c>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K45" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>26044</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>94</v>
+      <c r="B46" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="C46" s="6">
         <v>1</v>
@@ -2847,23 +3166,31 @@
       <c r="E46" s="6">
         <v>11059</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
+      <c r="F46" s="6">
+        <v>10</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0</v>
+      </c>
       <c r="I46" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J46" s="6">
         <v>11211</v>
       </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K46" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>26045</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>95</v>
+      <c r="B47" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -2874,23 +3201,31 @@
       <c r="E47" s="6">
         <v>11060</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="F47" s="6">
+        <v>10</v>
+      </c>
+      <c r="G47" s="6">
+        <v>3</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0</v>
+      </c>
       <c r="I47" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J47" s="6">
         <v>11211</v>
       </c>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K47" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>26046</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>96</v>
+      <c r="B48" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C48" s="6">
         <v>1</v>
@@ -2901,23 +3236,31 @@
       <c r="E48" s="6">
         <v>11061</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
+      <c r="F48" s="6">
+        <v>10</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
       <c r="I48" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J48" s="6">
         <v>11211</v>
       </c>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K48" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>26047</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>97</v>
+      <c r="B49" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -2928,23 +3271,31 @@
       <c r="E49" s="6">
         <v>11062</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
+      <c r="G49" s="6">
+        <v>3</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
       <c r="I49" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J49" s="6">
         <v>11211</v>
       </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K49" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>26048</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>98</v>
+      <c r="B50" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C50" s="6">
         <v>1</v>
@@ -2955,23 +3306,31 @@
       <c r="E50" s="6">
         <v>11063</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
+      <c r="G50" s="6">
+        <v>3</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
       <c r="I50" s="6">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J50" s="6">
         <v>11211</v>
       </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K50" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>26049</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>99</v>
+      <c r="B51" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C51" s="6">
         <v>1</v>
@@ -2982,23 +3341,31 @@
       <c r="E51" s="6">
         <v>11064</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>3</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
       <c r="I51" s="6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J51" s="6">
         <v>11211</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K51" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>26050</v>
       </c>
-      <c r="B52" s="30" t="s">
-        <v>100</v>
+      <c r="B52" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="6">
         <v>1</v>
@@ -3009,23 +3376,31 @@
       <c r="E52" s="6">
         <v>11065</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>3</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
       <c r="I52" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J52" s="6">
         <v>11211</v>
       </c>
-      <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K52" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>26051</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>101</v>
+      <c r="B53" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C53" s="6">
         <v>1</v>
@@ -3036,23 +3411,31 @@
       <c r="E53" s="6">
         <v>11066</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
+      <c r="F53" s="6">
+        <v>1</v>
+      </c>
+      <c r="G53" s="6">
+        <v>3</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
       <c r="I53" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J53" s="6">
         <v>11211</v>
       </c>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K53" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>26052</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>102</v>
+      <c r="B54" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -3063,23 +3446,31 @@
       <c r="E54" s="6">
         <v>11067</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>3</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
       <c r="I54" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J54" s="6">
         <v>11211</v>
       </c>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K54" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>26053</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>103</v>
+      <c r="B55" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C55" s="6">
         <v>1</v>
@@ -3090,23 +3481,31 @@
       <c r="E55" s="6">
         <v>11068</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>3</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
       <c r="I55" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J55" s="6">
         <v>11211</v>
       </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K55" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>26054</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>104</v>
+      <c r="B56" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C56" s="6">
         <v>1</v>
@@ -3117,23 +3516,31 @@
       <c r="E56" s="6">
         <v>11069</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>3</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
       <c r="I56" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J56" s="6">
         <v>11211</v>
       </c>
-      <c r="K56" s="4"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K56" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>26055</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>105</v>
+      <c r="B57" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="C57" s="6">
         <v>1</v>
@@ -3144,23 +3551,31 @@
       <c r="E57" s="6">
         <v>11070</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="F57" s="6">
+        <v>10</v>
+      </c>
+      <c r="G57" s="6">
+        <v>3</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
       <c r="I57" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J57" s="6">
         <v>11211</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K57" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>26056</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>106</v>
+      <c r="B58" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="C58" s="6">
         <v>1</v>
@@ -3171,16 +3586,24 @@
       <c r="E58" s="6">
         <v>11071</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
+      <c r="F58" s="6">
+        <v>10</v>
+      </c>
+      <c r="G58" s="6">
+        <v>3</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
       <c r="I58" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J58" s="6">
         <v>11211</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58" s="6">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
